--- a/html/resources/1condition/mainTrials1.xlsx
+++ b/html/resources/1condition/mainTrials1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Documents/Sinai_Projects/Code/fish-task/html/resources/1condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F64900A-A331-8B4B-A7D0-89A2CE46E8DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B745632-16FD-9D46-9C69-21FA24EB466D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16740" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -394,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
